--- a/biology/Zoologie/Astrild_queue-de-vinaigre/Astrild_queue-de-vinaigre.xlsx
+++ b/biology/Zoologie/Astrild_queue-de-vinaigre/Astrild_queue-de-vinaigre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Estrilda caerulescens
 L'Astrild queue-de-vinaigre (Estrilda caerulescens) ou Astrild lavande, est une espèce d'oiseaux appartenant au genre Estrilda et à la famille des Estrildidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 10 cm de longueur. Son plumage présente une coloration dominante gris bleu, plus sombre au niveau des parties supérieures et plus clair au niveau des joues et la gorge. Le ventre est noir. Le croupion, la queue et les sous-caudales sont rouges. Les yeux sont marron, le bec rougeâtre à extrémité noire et les pattes marron clair.
 La femelle est légèrement plus terne que le mâle.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend de la Sénégambie au nord du Centrafrique.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple la brousse et les milieux cultivés.
 </t>
